--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2B355A-1622-48F7-ADBC-131D5B1365FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98FF1D3-4722-4E5B-94A3-5BB8384B3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -386,6 +386,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,9 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,39 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,71 +803,71 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="26.5">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="18">
         <f ca="1">TODAY()</f>
-        <v>44984</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>45012</v>
+      </c>
+      <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+    <row r="6" spans="1:8" ht="18.5" thickBot="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" thickTop="1">
+    <row r="7" spans="1:8" ht="18.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
       </c>
@@ -880,47 +880,47 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" thickBot="1">
+    <row r="12" spans="1:8" ht="18.5" thickBot="1">
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45012</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" thickTop="1"/>
+        <v>45043</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="13">
         <v>9091</v>
       </c>
@@ -928,149 +928,149 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="8">
         <v>6</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
@@ -1083,17 +1083,17 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
@@ -1103,68 +1103,42 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <f>IF(G32="","",SUM(G32:H35))</f>
         <v>10000.1</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1181,6 +1155,32 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98FF1D3-4722-4E5B-94A3-5BB8384B3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A7D9D-AE08-4CAD-8C12-78F685BE785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,6 +386,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -400,54 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,7 +800,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="G36" sqref="G36:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -809,60 +809,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45012</v>
-      </c>
-      <c r="H3" s="19"/>
+        <v>45169</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,198 +884,198 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45043</v>
-      </c>
-      <c r="H12" s="23"/>
+        <v>45199</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13">
-        <v>9091</v>
+        <v>4546</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>5</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>9091</v>
+        <v>4546</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1083,62 +1083,87 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="10" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="F34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
-        <f>G32*0.1</f>
-        <v>909.1</v>
+        <v>454</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="F36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="18">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>10000.1</v>
-      </c>
-      <c r="H36" s="12"/>
+        <v>5000</v>
+      </c>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1155,32 +1180,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A7D9D-AE08-4CAD-8C12-78F685BE785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90426E-250D-4ABA-95AE-362D71777BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,6 +386,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -401,9 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -415,39 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,7 +800,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36:H37"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -809,60 +809,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="18">
         <f ca="1">TODAY()</f>
-        <v>45169</v>
-      </c>
-      <c r="H3" s="7"/>
+        <v>45199</v>
+      </c>
+      <c r="H3" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,198 +884,198 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11">
+      <c r="F12" s="21"/>
+      <c r="G12" s="22">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45199</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>45229</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14">
+      <c r="A18" s="8">
         <v>1</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="13">
-        <v>4546</v>
+        <v>13637</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14">
+      <c r="A20" s="8">
         <v>2</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14">
+      <c r="A22" s="8">
         <v>3</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14">
+      <c r="A24" s="8">
         <v>4</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14">
+      <c r="A26" s="8">
         <v>5</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14">
+      <c r="A28" s="8">
         <v>6</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14">
+      <c r="A30" s="8">
         <v>7</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>4546</v>
+        <v>13637</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1083,87 +1083,61 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="F34" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
-        <v>454</v>
+        <v>1363</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="F36" s="17" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="F36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="12">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>5000</v>
-      </c>
-      <c r="H36" s="18"/>
+        <v>15000</v>
+      </c>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1180,6 +1154,32 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD90426E-250D-4ABA-95AE-362D71777BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E23F9DD-8E8E-4DD2-824D-F94A01A91A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,6 +386,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -400,54 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -809,60 +809,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45199</v>
-      </c>
-      <c r="H3" s="19"/>
+        <v>45230</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.5" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,198 +884,198 @@
       <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45229</v>
-      </c>
-      <c r="H12" s="23"/>
+        <v>45260</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
     <row r="17" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="13">
-        <v>13637</v>
+        <v>9091</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="8">
+      <c r="A22" s="14">
         <v>3</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="8">
+      <c r="A24" s="14">
         <v>4</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="8">
+      <c r="A26" s="14">
         <v>5</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8">
+      <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="8">
+      <c r="A30" s="14">
         <v>7</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>13637</v>
+        <v>9091</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1083,61 +1083,87 @@
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="F34" s="10" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="F34" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="13">
-        <v>1363</v>
+        <v>909</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="F36" s="11" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="F36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="18">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>15000</v>
-      </c>
-      <c r="H36" s="12"/>
+        <v>10000</v>
+      </c>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:E23"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G34:H35"/>
+    <mergeCell ref="G32:H33"/>
+    <mergeCell ref="F28:H29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:H31"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="F26:H27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
@@ -1154,32 +1180,6 @@
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="C20:E21"/>
     <mergeCell ref="F20:H21"/>
-    <mergeCell ref="F28:H29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:H31"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:E27"/>
-    <mergeCell ref="F26:H27"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G36:H37"/>
-    <mergeCell ref="G34:H35"/>
-    <mergeCell ref="G32:H33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:E23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E23F9DD-8E8E-4DD2-824D-F94A01A91A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2122B83-0FD8-4926-A888-43C7622AD5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,65 +175,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>氏名：株式会社ウィンテージ</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>銀行名：住信ＳＢＩネット銀行</t>
-    <rPh sb="0" eb="3">
-      <t>ギンコウメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スミシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ギンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支店名：法人第一支店（106）</t>
-    <rPh sb="0" eb="2">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウジン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ダイイチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>口座情報：普通預金　1580924</t>
-    <rPh sb="0" eb="2">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>フツウヨキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名義：株式会社ウィンテージ</t>
-    <rPh sb="0" eb="2">
-      <t>メイギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
@@ -246,6 +187,62 @@
   </si>
   <si>
     <t>コンサルタント費用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支店名：別府支店(017)</t>
+    <rPh sb="0" eb="2">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ベップ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口座情報：普通預金　7581852</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>フツウヨキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀行名：大分銀行(0183)</t>
+    <rPh sb="0" eb="3">
+      <t>ギンコウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オオイタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名：惠藤　航平</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名義：野田　美咲</t>
+    <rPh sb="0" eb="2">
+      <t>メイギ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -799,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -841,7 +838,7 @@
       </c>
       <c r="G3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45230</v>
+        <v>45261</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -850,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -882,7 +879,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.5" thickBot="1">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>8</v>
@@ -890,7 +887,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="11">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45260</v>
+        <v>45292</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -901,7 +898,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -917,7 +914,7 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1089,7 +1086,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -1113,7 +1110,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -1128,7 +1125,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2122B83-0FD8-4926-A888-43C7622AD5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF9DEE7-EB89-4E83-8652-687C4DF33170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -838,7 +838,7 @@
       </c>
       <c r="G3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45261</v>
+        <v>45289</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -887,7 +887,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="11">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45292</v>
+        <v>45320</v>
       </c>
       <c r="H12" s="12"/>
     </row>

--- a/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
+++ b/契約書関連_ゆうきくん/請求書_クラウドサイン/請求書_クラウドサイン_こうへい（物販）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\請求書_クラウドサイン\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF9DEE7-EB89-4E83-8652-687C4DF33170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE9CC37-D1EB-41E8-AE44-EC0950802259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="請求書" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>請求書</t>
     <rPh sb="0" eb="3">
@@ -121,13 +121,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
@@ -242,6 +235,31 @@
     <t>名義：野田　美咲</t>
     <rPh sb="0" eb="2">
       <t>メイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録番号：</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録番号：T5120001226940</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>消費税
+10%</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒゼイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -253,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +322,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -377,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -445,6 +469,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -468,16 +498,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>10488</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>153363</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -518,7 +548,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="1504950"/>
+          <a:off x="5057775" y="1485900"/>
           <a:ext cx="695325" cy="677238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -794,18 +824,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="9.58203125" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5">
+    <row r="1" spans="1:8" ht="25.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,7 +852,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -829,7 +862,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -838,16 +871,16 @@
       </c>
       <c r="G3" s="6">
         <f ca="1">TODAY()</f>
-        <v>45289</v>
+        <v>45323</v>
       </c>
       <c r="H3" s="7"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -855,7 +888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.5" thickBot="1">
+    <row r="6" spans="1:8" ht="19.5" thickBot="1">
       <c r="A6" s="21"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -864,9 +897,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.5" thickTop="1">
+    <row r="7" spans="1:8" ht="19.5" thickTop="1">
       <c r="F7" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -877,9 +915,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.5" thickBot="1">
+    <row r="12" spans="1:8" ht="19.5" thickBot="1">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>8</v>
@@ -887,18 +925,22 @@
       <c r="F12" s="10"/>
       <c r="G12" s="11">
         <f ca="1">EDATE(G3,1)</f>
-        <v>45320</v>
+        <v>45352</v>
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="18.5" thickTop="1"/>
+    <row r="13" spans="1:8" ht="19.5" thickTop="1">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -914,12 +956,12 @@
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="13">
-        <v>9091</v>
+        <v>18182</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
@@ -1072,13 +1114,13 @@
       </c>
       <c r="G32" s="13">
         <f>IF(F18="","",SUM(F18:H31))</f>
-        <v>9091</v>
+        <v>18182</v>
       </c>
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="13"/>
@@ -1086,21 +1128,22 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
-      <c r="F34" s="16" t="s">
-        <v>12</v>
+      <c r="F34" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="G34" s="13">
-        <v>909</v>
+        <f>ROUNDDOWN(INT(G32*0.1),0)</f>
+        <v>1818</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -1110,22 +1153,22 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="F36" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="18">
         <f>IF(G32="","",SUM(G32:H35))</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -1180,7 +1223,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>